--- a/simulation_protocol.xlsx
+++ b/simulation_protocol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e72fa63d99f79ef2/Documents/Uni Agrarwissenschaften/Master/12. Semester/Crop and Ecosystem Modelling/partitioning_documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schul\Downloads\partitioning_documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18F67C69-CB46-447D-8898-70337072F6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526265B-3117-47E0-B8E8-2FC03C990298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43755" yWindow="6225" windowWidth="21780" windowHeight="10680" activeTab="1" xr2:uid="{F12B7921-4F08-40CF-AFEE-43EEB2CC06F5}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="9960" activeTab="1" xr2:uid="{F12B7921-4F08-40CF-AFEE-43EEB2CC06F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="160">
   <si>
     <t>Simulation protocol for Task 01</t>
   </si>
@@ -839,7 +839,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,12 +854,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1158,27 +1154,27 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="110.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" customWidth="1"/>
-    <col min="8" max="8" width="118.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="110.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="7" max="7" width="37.88671875" customWidth="1"/>
+    <col min="8" max="8" width="118.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +1184,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1212,7 +1208,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1238,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1249,7 +1245,7 @@
         <v>125</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -1264,7 +1260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -1275,7 +1271,7 @@
         <v>125</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1290,7 +1286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1296,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1316,7 +1312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1324,7 +1320,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1376,7 +1372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -1402,7 +1398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -1426,7 +1422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1432,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1460,7 +1456,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -1512,7 +1508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -1548,21 +1544,21 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -1585,7 +1581,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -1608,7 +1604,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
@@ -1631,7 +1627,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
@@ -1654,7 +1650,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
@@ -1677,7 +1673,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
@@ -1700,7 +1696,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
@@ -1723,7 +1719,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>42</v>
       </c>
@@ -1746,7 +1742,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
@@ -1769,7 +1765,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
@@ -1792,7 +1788,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -1815,7 +1811,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
@@ -1838,7 +1834,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -1861,7 +1857,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
@@ -1884,7 +1880,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>49</v>
       </c>
@@ -1907,7 +1903,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
@@ -1930,7 +1926,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -1953,7 +1949,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -1976,7 +1972,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -1999,7 +1995,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>54</v>
       </c>
@@ -2022,7 +2018,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>55</v>
       </c>
@@ -2045,7 +2041,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2064,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>57</v>
       </c>
@@ -2091,7 +2087,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>59</v>
       </c>
@@ -2114,7 +2110,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>58</v>
       </c>
@@ -2137,7 +2133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>60</v>
       </c>
@@ -2156,9 +2152,11 @@
       <c r="F26" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
@@ -2181,7 +2179,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
@@ -2204,7 +2202,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -2227,7 +2225,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
@@ -2250,7 +2248,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -2273,7 +2271,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
@@ -2296,7 +2294,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>67</v>
       </c>
@@ -2319,7 +2317,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
@@ -2342,7 +2340,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>69</v>
       </c>
@@ -2365,7 +2363,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
@@ -2388,7 +2386,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>71</v>
       </c>
@@ -2411,7 +2409,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>72</v>
       </c>
@@ -2434,7 +2432,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>73</v>
       </c>

--- a/simulation_protocol.xlsx
+++ b/simulation_protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schul\Downloads\partitioning_documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e72fa63d99f79ef2/Documents/Uni Agrarwissenschaften/Master/12. Semester/Crop and Ecosystem Modelling/partitioning_documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526265B-3117-47E0-B8E8-2FC03C990298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{0526265B-3117-47E0-B8E8-2FC03C990298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C89D412E-482C-4301-9766-A60BF1AFBFFA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="9960" activeTab="1" xr2:uid="{F12B7921-4F08-40CF-AFEE-43EEB2CC06F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F12B7921-4F08-40CF-AFEE-43EEB2CC06F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="161">
   <si>
     <t>Simulation protocol for Task 01</t>
   </si>
@@ -115,12 +115,6 @@
   </si>
   <si>
     <t>R version for the normal partitioning model</t>
-  </si>
-  <si>
-    <t>Basic partitioning model</t>
-  </si>
-  <si>
-    <t>Basic partitioning model with artifically added drought stress</t>
   </si>
   <si>
     <t>Crop</t>
@@ -714,6 +708,15 @@
   <si>
     <t>Expert survey</t>
   </si>
+  <si>
+    <t>Grain Maize</t>
+  </si>
+  <si>
+    <t>Simile version of normal partitioning model with artifically added drought stress</t>
+  </si>
+  <si>
+    <t>R version of normal partitioning model with artifically added drought stress</t>
+  </si>
 </sst>
 </file>
 
@@ -750,12 +753,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -820,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -837,9 +870,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -855,7 +893,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1151,30 +1189,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0BDB3F-BBA7-4E5B-9F2C-EF723FBC12FC}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="110.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" customWidth="1"/>
-    <col min="8" max="8" width="118.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1"/>
+    <col min="8" max="8" width="128.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1184,7 +1222,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1208,7 +1246,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
@@ -1234,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1245,22 +1283,22 @@
         <v>125</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -1271,267 +1309,149 @@
         <v>125</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7">
-        <v>45132</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>125</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>125</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>125</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>125</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E14" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C15" s="2">
         <v>125</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>125</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>125</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7">
-        <v>45132</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>125</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E15" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>2</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>125</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1543,916 +1463,916 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B630085D-02DC-45BE-8755-D04AEBDCD801}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="9">
         <v>100</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="B5" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="9">
         <v>800</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="9">
         <v>850</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="G9" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="9">
         <v>0.7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="9">
         <v>3</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="G14" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="9">
         <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" s="9">
         <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="9">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="9">
         <v>0.5</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="9">
         <v>0.02</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="9">
         <v>0.12</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="G27" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="C31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="C32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="C34" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="C36" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D36" s="9">
         <v>5</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D37" s="9">
         <v>3.25</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D38" s="9">
         <v>1.25</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D39" s="9">
         <v>0</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
